--- a/CompanyProductPrice.xlsx
+++ b/CompanyProductPrice.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idata\Desktop\Packt_Pub_PBI_Course\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14900" windowHeight="6140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="Company Product Price" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>Company</t>
   </si>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -613,8 +608,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Company"/>
     <tableColumn id="2" name="Product"/>
@@ -667,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -719,7 +714,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -913,7 +908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,17 +918,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -955,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -966,7 +961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -977,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -988,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -999,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +1005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1016,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1049,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1071,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1109,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1115,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1148,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1192,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1247,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1258,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1274,262 +1269,270 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
     </row>
   </sheetData>
